--- a/ProjDoc/DataLogging.xlsx
+++ b/ProjDoc/DataLogging.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asc\repo\UVR1611\ProjDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA995338-309A-4975-A973-59EBC853DF87}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AB27D8-7948-4DB0-AF56-3AF73D8B6EBF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="20550" xr2:uid="{2E95E858-8EB8-4107-845E-4A13BFB9B987}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$17</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Analog</t>
   </si>
@@ -495,7 +498,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,5 +669,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ProjDoc/DataLogging.xlsx
+++ b/ProjDoc/DataLogging.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asc\repo\UVR1611\ProjDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AB27D8-7948-4DB0-AF56-3AF73D8B6EBF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="20550" xr2:uid="{2E95E858-8EB8-4107-845E-4A13BFB9B987}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="20550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$17</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>Analog</t>
   </si>
@@ -96,12 +95,33 @@
   </si>
   <si>
     <t>PID Hzkr4</t>
+  </si>
+  <si>
+    <t>HzAnf1</t>
+  </si>
+  <si>
+    <t>HzAnf3</t>
+  </si>
+  <si>
+    <t>HzAnf4</t>
+  </si>
+  <si>
+    <t>HzAnf</t>
+  </si>
+  <si>
+    <t>HzAnfW</t>
+  </si>
+  <si>
+    <t>HzAnf1 Soll</t>
+  </si>
+  <si>
+    <t>HzAnf4 Soll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -494,14 +514,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F397FE1-DDF7-4A78-9BAC-588ACA88029D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
@@ -559,7 +579,9 @@
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -568,7 +590,9 @@
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -577,7 +601,9 @@
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
